--- a/pa/input.xlsx
+++ b/pa/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junto\Downloads\head-repo\private725\PC2024\split_root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junto\Downloads\head-repo\CSP\pa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF95D3F-BCBD-4A6B-A011-4AE43D655EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51DB762-DC1F-4574-88AA-662E654224EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,541 +34,415 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">蒹葭는 刺襄公也라 未能用周禮하니 將無以固其國焉이라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒹葭는 襄公을 풍자한 詩이다
-&lt;양공이&gt; 周나라의 禮를 잘 따르지 못하니 장차 나라를 견고하게 할 수 없었다. 
-</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">秦處周之舊土하니 其人被周之德敎日久矣라 今襄公新為諸侯하여 未習周之禮法이라 故國人未服焉이라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">秦이 周의 옛 땅에 자리 잡았는데 그곳의 백성들은 周의 德敎에 젖어든 날이 오래 되었다. 그런데 이제 襄公이 새로 諸侯가 되어 周나라의 禮法에 익숙하지 않았다. 그리하여 國人들이 복종하지 않은 것이다.
-</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">‘蒹葭(三章章八句)’至‘國焉’ ○正義曰：作蒹葭詩者, 刺襄公也. 襄公新得周地, 其民被周之德敎日久. 今襄公未能用周禮以敎之. 禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也. 經三章, 皆言治國須禮之事.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">序의 [蒹葭]에서 [國焉]까지
-○正義曰：&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다. 
-襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다. 그런데 지금 襄公은 周禮를 따라 그들을 잘 교화시키지 못하였다. 禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다. 그리하여 풍자한 것이다. 經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다. 
-</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t xml:space="preserve">蒹葭蒼蒼이러니 白露為霜이로다
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">갈대 무성하더니
-白露 서리가 되었네 
-</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve">興也라 蒹은 薕(렴)이요 葭는 蘆也라 蒼蒼은 盛也라 白露凝戾為霜然後에 歲事成이요 國家待禮然後興이라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">興이다. 蒹은 물억새이고 葭는 갈대이다. 蒼蒼은 ‘무성함’이다. 白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.
-</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t xml:space="preserve">箋云 蒹葭在衆草之中에 蒼蒼然彊盛이라가 至白露凝戾為霜이면 則成而黃이라 興者는 喻衆民之不從襄公政令者는 得周禮以敎之면 則服이라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">箋云：갈대는 여러 풀 가운데에 푸르게 무성했다가 白露가 얼어 서리가 되면 다 자라 누래진다. 興한 것은 襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt; 周禮를 따라 교화시키면 복종한다는 것을 비유한 것이다.
-</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t xml:space="preserve">所謂伊人이 在水一方이언마는
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이른바 그 분이
-강물 저쪽에 있건만 
-</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve">伊는 維也라 一方은 難至矣라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">伊는 ‘그(維)’이다. 一方은 이르기 어려운 곳이다.
-</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve">箋云 伊當作繄(예)니 繄는 猶是也라 所謂是知周禮之賢人이 乃在大水之一邊이니 假喻以言遠이라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">箋云：伊는 繄가 되어야 하니 繄는 ‘이(是)’와 같다. 이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것이다.
-</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t xml:space="preserve">遡洄從之하니 道阻且長이러니
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">물살 거슬러 올라가 따르려니
-길은 막히고 멀기만 하더니 
-</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t xml:space="preserve">逆流而上曰遡洄라 逆禮면 則莫能以至也라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">물살을 거슬러 올라가는 것을 遡洄라 한다. 禮를 거스르면 이를 수 없는 것이다.
-</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve">箋云 此言不以敬順往求之면 則不能得見이라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">箋云：이는 공경하고 순종하는 마음으로 가서 구하지 않으면 만나볼 수 없음을 말한 것이다.
-</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t xml:space="preserve">遡游從之하니 宛在水中央이라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">물살을 따라 건너가 따르니
-가만히 강 가운데에 있네 
-</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t xml:space="preserve">順流而涉曰遡游라 順禮求濟면 道來迎之라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">물살을 따라 건너는 것을 遡游라고 한다. 禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.
-</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t xml:space="preserve">箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 ○宛은 本亦作苑이라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다. 공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다.
-○宛은 苑으로 되어 있는 本도 있다. 
-</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t xml:space="preserve">‘蒹葭’至‘中央’ ○[正義曰]：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興. 今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也. 所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊. 旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之. 若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至. 若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內. 然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">經의 [蒹葭]에서 [中央]까지
-○正義曰：毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다. 이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다. 지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다. 
-이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다. 물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다. 
-만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은, 禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다. 그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다. 
-</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t xml:space="preserve">○鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣. 欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處. 在大水之一邊, 假喻以言遠. 旣言此人在水一邊, 因以水行為喻. 若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得. 何則? 賢者, 難進而易退, 故不以敬順求之, 則不可得. 欲令襄公敬順求知禮之賢人, 以敎其國也.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">○鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는 것을 興한 것이다. 周禮를 구하고자 한다면 周禮를 아는 사람을 얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가. 큰 강 한편에 있다는 것은 비유를 빌려 멀리 있음을 말한 것이다. 이 사람이 강 한편에 있음을 말하고, 인하여 물길을 가는 것으로 비유를 삼았다.
-물살을 거슬러 따라가면 물길이 막히고 멀어 끝내 만나볼 수 없다는 것은, 공경하고 순종하는 마음으로 가서 찾지 않는다면 이 사람을 얻을 수 없음을 말한 것이고, 만약 물살의 흐름을 따라가면 이 사람이 가만히 물 가운데 있어 쉽게 볼 수 있다는 것은, 공경하고 순종하는 마음으로 찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다. 어째서인가? 현자는 벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기 때문에 공경하고 순종하는 마음으로 찾지 않는다면 만나볼 수 없는 것이다. 襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아 그 나라를 교화하게 하려 한 것이다.”라고 여겼다. 
-</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t xml:space="preserve">傳‘蒹葭’至‘後興’ ○正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也. 八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傳의 [蒹葭]에서 [後興]까지
-○正義曰：‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다. 蘆는 갈대이다.”라고 하고 陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다. 靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다.”라고 하였다. 
-≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다.”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다. 下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다. 그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다. 그리하여 ‘凝戾為霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다. 
-8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다. ‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다. &lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다. &lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다. 
-여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다. 
-</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t xml:space="preserve">箋‘蒹葭’至‘則服’ ○正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">箋의 [蒹葭]에서 [則服]까지
-○正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다. 
-</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t xml:space="preserve">傳‘伊維’至‘難至’ ○正義曰：‘伊 維’, 釋詁文. 傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也. 下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍. 須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.” ‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傳의 [伊維]에서 [難至]까지
-○正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다. 傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다. 下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다.”라고 한 것이다. ‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다. 
-</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t xml:space="preserve">箋‘伊當’至‘言遠’○正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳, 以所謂伊人, ‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事. 一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">箋의 [伊當]에서 [言遠]까지
-○正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다. 그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다. 그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다. 一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다. 
-</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
-    <t xml:space="preserve">傳‘逆流’至‘以至’ ○正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至. 上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之. (未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之. 箋以伊人為知禮之人, 故易傳以為求賢之事.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傳의 [逆流]에서 [以至]까지
-○正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다.”라고 하였다. 그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다. 그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다. 
-이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다. 위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다. ‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다. 箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다. 
-</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
-    <t xml:space="preserve">蒹葭萋(처)萋하니 白露未晞로다
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">갈대 무성하니
-白露 아직 마르지 않았네 
-</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t xml:space="preserve">萋萋는 猶蒼蒼也라 晞는 乾(간)也라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다.
-</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t xml:space="preserve">箋云 未晞는 未為霜이라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">箋云：‘未晞’는 아직 서리가 되지 않은 것이다.
-</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
-    <t xml:space="preserve">傳‘晞 乾’ ○正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也. 彼言露晞, 謂露盡乾. 此篇上章言白露為霜, 則此言未晞, 謂未乾為霜, 與彼異, 故箋云 ‘未晞 未為霜也’.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傳의 [晞 乾]
-○正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다. &lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다. 그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다. 그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未為霜也]’라고 한 것이다. 
-</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
-    <t xml:space="preserve">所謂伊人이 在水之湄언마는
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이른바 그분이
-강물 가에 있건만 
-</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
-    <t xml:space="preserve">湄는 水隒(엄)이라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湄는 ‘물가’이다.
-</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
-    <t xml:space="preserve">傳‘湄 水隒’○正義曰 ; 釋水云“水草交為湄.” 謂水草交際之處, 水之岸也. 釋山云 “重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傳의 [湄 水隒]
-○正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다. ≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다.”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다. 
-</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t xml:space="preserve">遡洄從之하니 道阻且躋러니
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">거슬러 올라가 따르려하니
-길은 험하고 오르막이더니 
-</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
-    <t xml:space="preserve">躋는 升也라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">躋는 ‘오르막’이다.
-</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t xml:space="preserve">箋云：升者는 言其難至니 如升阪이라 ○躋는 本又作隮라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다.
-○躋는 隮로 되어 있는 본도 있다. 
-</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
-    <t xml:space="preserve">遡游從之하니 宛在水中坻(지)로다
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">물살 따라 가니
-가만히 강 가운데 모래톱에 있다네 
-</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
-    <t xml:space="preserve">坻는 小渚也라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">坻는 작은 모래톱이다.
-</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
-    <t xml:space="preserve">傳‘坻 小渚’○正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.” 然則坻, 是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也. 以渚易知, 故繫渚言之.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傳의 [坻小渚]
-○正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다. 그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다. 
-</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
-    <t xml:space="preserve">蒹葭采采하니 白露未已로다
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">갈대 무성하니
-白露 아직 그치지 않았네 
-</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
-    <t xml:space="preserve">采采는 猶萋萋也라 未已는 猶未止也라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‘采采’는 ‘萋萋’와 같다. ‘未已’는 ‘未止’와 같다.
-</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
-    <t xml:space="preserve">所謂伊人이 在水之涘(사)언마는
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이른바 그 분이
-강가에 있건만 
-</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
-    <t xml:space="preserve">涘는 厓也라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">涘는 ‘강가’이다.
-</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t xml:space="preserve">遡洄從之하니 道阻且右러니
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">물살 거슬러 따라가니
-길이 험하고 우회하더니 
-</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
-    <t xml:space="preserve">右는 出其右也라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">右는 우측으로 돌아서 나가는 것이다.
-</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
-    <t xml:space="preserve">箋云 右者는 言其迂迴也라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">箋云：右는 우회함을 말한 것이다.
-</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
-    <t xml:space="preserve">傳‘右 出其右’ ○正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也. 若正與相當, 行則易到, 今乃出其右廂, 是難至也. 箋云 ‘右 言其迂迴’, 出其左, 亦迂迴, 言右, 取其與涘․沚為韻.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傳의 [右 出其右]
-○正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다. 만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다. 箋에 ‘右는 우회함을 말한 것이다.’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다. 그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다. 
-</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
-    <t xml:space="preserve">遡游從之하니 宛在水中沚로다
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">물살 따라 가니
-가만히 물 가운데 작은 모래톱에 있네 
-</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t xml:space="preserve">小渚曰沚라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">작은 모래톱을 沚라고 한다.
-</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
-    <t xml:space="preserve">蒹葭 三章이니 章八句라
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;蒹葭&gt; 3章이니 章마다 8句이다.
-</t>
+    <t xml:space="preserve">蒹葭는 刺襄公也라 未能用周禮하니 將無以固其國焉이라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒹葭는 襄公을 풍자한 詩이다 &lt;양공이&gt; 周나라의 禮를 잘 따르지 못하니 장차 나라를 견고하게 할 수 없었다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">秦處周之舊土하니 其人被周之德敎日久矣라 今襄公新為諸侯하여 未習周之禮法이라 故國人未服焉이라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">秦이 周의 옛 땅에 자리 잡았는데 그곳의 백성들은 周의 德敎에 젖어든 날이 오래 되었다. 그런데 이제 襄公이 새로 諸侯가 되어 周나라의 禮法에 익숙하지 않았다. 그리하여 國人들이 복종하지 않은 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘蒹葭(三章章八句)’至‘國焉’ 正義曰：作蒹葭詩者, 刺襄公也. 襄公新得周地, 其民被周之德敎日久. 今襄公未能用周禮以敎之. 禮者, 為國之本, 未能用周禮, 將無以固其國焉, 故刺之也. 經三章, 皆言治國須禮之事. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">序의 [蒹葭]에서 [國焉]까지 正義曰：&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.  襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다. 그런데 지금 襄公은 周禮를 따라 그들을 잘 교화시키지 못하였다. 禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다. 그리하여 풍자한 것이다. 經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒹葭蒼蒼이러니 白露為霜이로다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">갈대 무성하더니 白露 서리가 되었네  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">興也라 蒹은 薕(렴)이요 葭는 蘆也라 蒼蒼은 盛也라 白露凝戾為霜然後에 歲事成이요 國家待禮然後興이라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">興이다. 蒹은 물억새이고 葭는 갈대이다. 蒼蒼은 ‘무성함’이다. 白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云 蒹葭在衆草之中에 蒼蒼然彊盛이라가 至白露凝戾為霜이면 則成而黃이라 興者는 喻衆民之不從襄公政令者는 得周禮以敎之면 則服이라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云：갈대는 여러 풀 가운데에 푸르게 무성했다가 白露가 얼어 서리가 되면 다 자라 누래진다. 興한 것은 襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt; 周禮를 따라 교화시키면 복종한다는 것을 비유한 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">所謂伊人이 在水一方이언마는 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이른바 그 분이 강물 저쪽에 있건만  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">伊는 維也라 一方은 難至矣라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">伊는 ‘그(維)’이다. 一方은 이르기 어려운 곳이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云 伊當作繄(예)니 繄는 猶是也라 所謂是知周禮之賢人이 乃在大水之一邊이니 假喻以言遠이라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云：伊는 繄가 되어야 하니 繄는 ‘이(是)’와 같다. 이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">遡洄從之하니 道阻且長이러니 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆流而上曰遡洄라 逆禮면 則莫能以至也라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">물살을 거슬러 올라가는 것을 遡洄라 한다. 禮를 거스르면 이를 수 없는 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云 此言不以敬順往求之면 則不能得見이라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云：이는 공경하고 순종하는 마음으로 가서 구하지 않으면 만나볼 수 없음을 말한 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">遡游從之하니 宛在水中央이라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">물살을 따라 건너가 따르니 가만히 강 가운데에 있네  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">順流而涉曰遡游라 順禮求濟면 道來迎之라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">물살을 따라 건너는 것을 遡游라고 한다. 禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云 宛은 坐見貌라 以敬順求之면 則近耳니 易得見也라 宛은 本亦作苑이라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云：宛은 &lt;가만히&gt; 앉아서 쳐다보는 모양이다. 공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다. 宛은 苑으로 되어 있는 本도 있다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘蒹葭’至‘中央’ [正義曰]：毛以為“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾為霜, 然後堅實中用, 歲事得成, 以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興. 今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也. 所謂維是得人之道, 乃遠在大水一邊, 大水, 喻禮樂, 言得人之道, 乃在禮樂之一邊. 旣以水喻禮樂, 禮樂之傍有得人之道, 因從水內求之. 若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至. 若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內. 然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">經의 [蒹葭]에서 [中央]까지 正義曰：毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다. 이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다. 지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.  이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다. 물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다.  만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은, 禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다. 그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鄭以為“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾為霜, 則成而為黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣. 欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處. 在大水之一邊, 假喻以言遠. 旣言此人在水一邊, 因以水行為喻. 若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得. 何則? 賢者, 難進而易退, 故不以敬順求之, 則不可得. 欲令襄公敬順求知禮之賢人, 以敎其國也.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는 것을 興한 것이다. 周禮를 구하고자 한다면 周禮를 아는 사람을 얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가. 큰 강 한편에 있다는 것은 비유를 빌려 멀리 있음을 말한 것이다. 이 사람이 강 한편에 있음을 말하고, 인하여 물길을 가는 것으로 비유를 삼았다. 물살을 거슬러 따라가면 물길이 막히고 멀어 끝내 만나볼 수 없다는 것은, 공경하고 순종하는 마음으로 가서 찾지 않는다면 이 사람을 얻을 수 없음을 말한 것이고, 만약 물살의 흐름을 따라가면 이 사람이 가만히 물 가운데 있어 쉽게 볼 수 있다는 것은, 공경하고 순종하는 마음으로 찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다. 어째서인가? 현자는 벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기 때문에 공경하고 순종하는 마음으로 찾지 않는다면 만나볼 수 없는 것이다. 襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아 그 나라를 교화하게 하려 한 것이다.”라고 여겼다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳‘蒹葭’至‘後興’ 正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺. 蘆, 葦也.” 陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊. 靑․徐州人謂之蘆, 兗州․遼東通語也.” 祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾為燥之義. 下章‘未睎’, 謂露未乾(간)為霜. 然則露凝為霜, 亦如乾燥然, 故云‘凝戾為霜’, 探下章之意, 以為說也. 八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中. ‘白霜凝戾為霜然後歲事成’, 謂八月九月葭成葦, 可以為曲(簿)[薄]充歲事也. 七月云 “八月萑葦”, 則八月葦已成. 此云‘白露為霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜為言耳, 其實白露初降, 已任用矣. 此以霜降物成, 喻得禮則國興, 下章‘未晞’‘未已’, 言其未為霜則物不成, 喻未得禮則國不興. 此詩主刺未能用周禮, 故先言得禮則興, 後言無禮不興, 所以倒也. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳의 [蒹葭]에서 [後興]까지 正義曰：‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다. 蘆는 갈대이다.”라고 하고 陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다. 靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다.”라고 하였다.  ≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다.”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다. 下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다. 그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다. 그리하여 ‘凝戾為霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.  8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다. ‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다. &lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다. &lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露為霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.  여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다. 이 詩는 周禮를 잘 따르지 못함을 위주로 풍자한 것이다. 그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋‘蒹葭’至‘則服’ 正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋의 [蒹葭]에서 [則服]까지 正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳‘伊維’至‘難至’ 正義曰：‘伊 維’, 釋詁文. 傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也. 下傳, 以遡洄喻逆禮, 遡游喻順禮, 言水內有得人之道, 在大水一方, 喻其遠而難至, 言得人之道 在禮樂之傍. 須用禮樂以求之, 故下句言從水內以求所求之物, 喻用禮以求得人之道, 故王肅云 “維得人之道, 乃在水之一方.” ‘一方 難至矣’, 水以喻禮樂, 能用禮則至於道也. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳의 [伊維]에서 [難至]까지 正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다. 傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다. 下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다. 반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다. 그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다.”라고 한 것이다. ‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋‘伊當’至‘言遠’正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮, 故易傳, 以所謂伊人, ‘所謂是知周禮之賢人 在大水一邊 假喻以言遠’, 故下句逆流․順流, 喻敬順, 皆述求賢之事. 一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋의 [伊當]에서 [言遠]까지 正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다. 그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喻以言遠]’이라고 한 것이다. 그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다. 一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳‘逆流’至‘以至’ 正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.” 然則逆․順流, 皆謂渡水有逆順, 故下傳曰 ‘順流而涉’, 見(현)其是人渡水也. 此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至, 故喻逆禮則莫能以至, 言不得人之道, 不可至. 上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之. (未)[求]濟, 謂未渡水也, 以其用水為喻, 故以(未)[求]濟言之. 箋以伊人為知禮之人, 故易傳以為求賢之事. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳의 [逆流]에서 [以至]까지 正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다.”라고 하였다. 그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다. 그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다.  이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다. 그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다. 위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다. ‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다. 箋은 ‘伊人’을 禮를 아는 사람으로 여겼다. 그리하여 傳을 바꾸어 어진 이를 구하는 일로 여긴 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒹葭萋(처)萋하니 白露未晞로다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">갈대 무성하니 白露 아직 마르지 않았네  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">萋萋는 猶蒼蒼也라 晞는 乾(간)也라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘萋萋’는 ‘蒼蒼’과 같다. 晞는 ‘마르다’이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云 未晞는 未為霜이라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云：‘未晞’는 아직 서리가 되지 않은 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳‘晞 乾’ 正義曰：湛露云“匪陽不晞”, 言見日則乾, 故知晞為乾也. 彼言露晞, 謂露盡乾. 此篇上章言白露為霜, 則此言未晞, 謂未乾為霜, 與彼異, 故箋云 ‘未晞 未為霜也’. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳의 [晞 乾] 正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다. 그리하여 晞가 ‘마르다’임을 안 것이다. &lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다. 그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露為霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다. 그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未為霜也]’라고 한 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">所謂伊人이 在水之湄언마는 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이른바 그분이 강물 가에 있건만  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">湄는 水隒(엄)이라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">湄는 ‘물가’이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳‘湄 水隒’正義曰 ; 釋水云“水草交為湄.” 謂水草交際之處, 水之岸也. 釋山云 “重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸, 故云‘水隒.’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳의 [湄 水隒] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다. ≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다.”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다. 그리하여 ‘水隒’이라고 한 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">遡洄從之하니 道阻且躋러니 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">거슬러 올라가 따르려하니 길은 험하고 오르막이더니  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">躋는 升也라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">躋는 ‘오르막’이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云：升者는 言其難至니 如升阪이라 躋는 本又作隮라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">升은 이르기 어려움을 말하니 비탈을 오르는 것과 같은 것이다. 躋는 隮로 되어 있는 본도 있다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">遡游從之하니 宛在水中坻(지)로다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">물살 따라 가니 가만히 강 가운데 모래톱에 있다네  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">坻는 小渚也라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">坻는 작은 모래톱이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳‘坻 小渚’正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.” 然則坻, 是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也. 以渚易知, 故繫渚言之. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳의 [坻小渚] 正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다. 그렇다면 坻는 ‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에  渚를 붙여 말한 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒹葭采采하니 白露未已로다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">갈대 무성하니 白露 아직 그치지 않았네  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">采采는 猶萋萋也라 未已는 猶未止也라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘采采’는 ‘萋萋’와 같다. ‘未已’는 ‘未止’와 같다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">所謂伊人이 在水之涘(사)언마는 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이른바 그 분이 강가에 있건만  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">涘는 厓也라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">涘는 ‘강가’이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">遡洄從之하니 道阻且右러니 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">물살 거슬러 따라가니 길이 험하고 우회하더니  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">右는 出其右也라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">右는 우측으로 돌아서 나가는 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云 右者는 言其迂迴也라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">箋云：右는 우회함을 말한 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳‘右 出其右’ 正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也. 若正與相當, 行則易到, 今乃出其右廂, 是難至也. 箋云 ‘右 言其迂迴’, 出其左, 亦迂迴, 言右, 取其與涘․沚為韻. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳의 [右 出其右] 正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다. 만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다. 箋에 ‘右는 우회함을 말한 것이다.’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다. 그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">遡游從之하니 宛在水中沚로다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">小渚曰沚라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">작은 모래톱을 沚라고 한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒹葭 三章이니 章八句라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;蒹葭&gt; 3章이니 章마다 8句이다. </t>
   </si>
 </sst>
 </file>
@@ -642,12 +516,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -954,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -976,499 +853,499 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="323" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="204" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
+        <v>34</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>131</v>
+        <v>45</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>139</v>
